--- a/hw2_requirements.xlsx
+++ b/hw2_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyichen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyichen/Master/ECE568/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86176C9-2B4F-FF40-98FA-2E134E52A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982C8CC-8447-5C41-A636-371CEF0102D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="2560" windowWidth="24800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="2360" windowWidth="24800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Extra note to TA</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Any extra tests you would like to mention?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>the cache size can be customized, we choose to pass 10, which means the number of maximum responses we can cache</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -466,7 +475,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -491,104 +500,147 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="16" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="16" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="55" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="16" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="43" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="31" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="16" customHeight="1">
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" customHeight="1">
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" customHeight="1">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
